--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1579206.659914479</v>
+        <v>1665132.693608487</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18142616.70954775</v>
+        <v>16659530.99074004</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2060125.517083133</v>
+        <v>606553.2040797146</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5866611.849893784</v>
+        <v>6312775.018883565</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +661,10 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>429.4369973932878</v>
@@ -674,10 +676,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>214.9311683192073</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>106.3160237855408</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -868,16 +870,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>125.6544692828921</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>131.9969996527466</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
         <v>433.7610480884109</v>
@@ -908,10 +910,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>45.10878876340928</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>150.7383063660856</v>
       </c>
     </row>
     <row r="6">
@@ -1057,7 +1059,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>82.43648595643982</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1108,13 +1110,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>157.8824880649888</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1136,13 +1138,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>204.6657358189418</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>94.75572470629932</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1291,10 +1293,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>116.0434079398616</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1309,7 +1311,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>93.9069243798661</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1370,25 +1372,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,13 +1423,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>225.5544290051375</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1436,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>75.13277396341846</v>
       </c>
     </row>
     <row r="12">
@@ -1540,7 +1542,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>24.34318456170487</v>
+        <v>3.139541480022982</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1607,25 +1609,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>37.66776315849336</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>272.1494839753895</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1771,7 +1773,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>45.12958086936525</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1783,7 +1785,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>122.9742767430581</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1828,7 +1830,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800599</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1862,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2014,13 +2016,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>2.008513159458598</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973306759</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2052,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>240.273786227905</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2068,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2095,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629699</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
@@ -2132,7 +2134,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2257,7 +2259,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308167891</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2293,19 +2295,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>172.6623007436936</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>189.9879808696992</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2491,7 +2493,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225796</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2722,7 +2724,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>35.34780583513513</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2953,7 +2955,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3007,7 +3009,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>75.86622810093029</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3016,7 +3018,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>2.292363805516904</v>
       </c>
     </row>
     <row r="32">
@@ -3190,22 +3192,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>20.56754178381327</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>39.57637241135595</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3240,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3424,7 +3426,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -3439,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>31.24391673888106</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3554,7 +3556,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U38" t="n">
         <v>256.6300796561533</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>136.950576281578</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3679,7 +3681,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>35.20092700998732</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3727,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3746,16 +3748,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>100.7791303724942</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,16 +3793,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>186.7520388613999</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -3916,7 +3918,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,13 +3954,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>245.6558377980602</v>
       </c>
       <c r="V43" t="n">
-        <v>172.6623007436913</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>266.7808108582859</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>287.9420426233985</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4186,10 +4188,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>82.62483121292207</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>114.8528499950181</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1270.144995079233</v>
+        <v>1789.512437976118</v>
       </c>
       <c r="C2" t="n">
-        <v>1236.042926303061</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="D2" t="n">
-        <v>1204.173545517909</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E2" t="n">
-        <v>770.3988006762045</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F2" t="n">
-        <v>342.5313710854123</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G2" t="n">
-        <v>342.5313710854123</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H2" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I2" t="n">
         <v>53.40121652862856</v>
@@ -4331,49 +4333,49 @@
         <v>53.40121652862856</v>
       </c>
       <c r="K2" t="n">
-        <v>714.2412710704069</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L2" t="n">
-        <v>714.2412710704069</v>
+        <v>687.540662806093</v>
       </c>
       <c r="M2" t="n">
-        <v>714.2412710704069</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="N2" t="n">
-        <v>714.2412710704069</v>
+        <v>2009.22077188965</v>
       </c>
       <c r="O2" t="n">
-        <v>1293.567921177998</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719776</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2586.408952615265</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V2" t="n">
-        <v>2223.792002549091</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W2" t="n">
-        <v>1818.936547960124</v>
+        <v>1831.119383460849</v>
       </c>
       <c r="X2" t="n">
-        <v>1399.794084539435</v>
+        <v>1816.017324080564</v>
       </c>
       <c r="Y2" t="n">
-        <v>1292.404161523737</v>
+        <v>1811.771604420622</v>
       </c>
     </row>
     <row r="3">
@@ -4404,31 +4406,31 @@
         <v>1006.821064952619</v>
       </c>
       <c r="I3" t="n">
-        <v>1032.884738113077</v>
+        <v>1006.821064952619</v>
       </c>
       <c r="J3" t="n">
-        <v>1032.884738113077</v>
+        <v>1006.821064952619</v>
       </c>
       <c r="K3" t="n">
-        <v>1693.724792654855</v>
+        <v>1006.821064952619</v>
       </c>
       <c r="L3" t="n">
-        <v>1693.724792654855</v>
+        <v>1006.821064952619</v>
       </c>
       <c r="M3" t="n">
-        <v>1693.724792654855</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="N3" t="n">
-        <v>1693.724792654855</v>
+        <v>2009.22077188965</v>
       </c>
       <c r="O3" t="n">
-        <v>1693.724792654855</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="P3" t="n">
-        <v>2354.564847196633</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q3" t="n">
-        <v>2552.888048337089</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R3" t="n">
         <v>2670.060826431428</v>
@@ -4516,13 +4518,13 @@
         <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>2362.477930088441</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="U4" t="n">
-        <v>2084.044929341546</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V4" t="n">
-        <v>1797.089421211977</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W4" t="n">
         <v>1797.089421211977</v>
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1789.095648603258</v>
+        <v>2479.623634536778</v>
       </c>
       <c r="C5" t="n">
-        <v>1350.953175786681</v>
+        <v>2041.481161720201</v>
       </c>
       <c r="D5" t="n">
-        <v>915.0433909611256</v>
+        <v>1605.571376894645</v>
       </c>
       <c r="E5" t="n">
-        <v>481.2686461194208</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="F5" t="n">
-        <v>53.40121652862856</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G5" t="n">
-        <v>53.40121652862856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H5" t="n">
         <v>53.40121652862856</v>
@@ -4568,16 +4570,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L5" t="n">
-        <v>1293.567921177998</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M5" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N5" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
         <v>1293.567921177998</v>
@@ -4607,10 +4609,10 @@
         <v>2669.245775882865</v>
       </c>
       <c r="X5" t="n">
-        <v>2623.681342788512</v>
+        <v>2654.14371650258</v>
       </c>
       <c r="Y5" t="n">
-        <v>2215.395219088166</v>
+        <v>2501.882800981281</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4643,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>714.2412710704069</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1375.081325612185</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
         <v>1599.468199913098</v>
@@ -4699,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1049.85056207581</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>877.2888505590353</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
         <v>794.0196728252577</v>
@@ -4747,28 +4749,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2510.819457729425</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>2264.94001130788</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>1986.507010560985</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="V7" t="n">
-        <v>1986.507010560985</v>
+        <v>1956.566681883682</v>
       </c>
       <c r="W7" t="n">
-        <v>1714.480606147277</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X7" t="n">
-        <v>1469.088851480689</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y7" t="n">
-        <v>1241.669180794798</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>752.2549115535338</v>
+        <v>648.8602641703436</v>
       </c>
       <c r="C8" t="n">
-        <v>314.1124387369571</v>
+        <v>210.7177913537669</v>
       </c>
       <c r="D8" t="n">
-        <v>107.3793722531775</v>
+        <v>178.8484105686155</v>
       </c>
       <c r="E8" t="n">
-        <v>77.64503145187676</v>
+        <v>149.1140697673148</v>
       </c>
       <c r="F8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
         <v>632.7278666362198</v>
@@ -4835,19 +4837,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2410.838523748444</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2410.838523748444</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="W8" t="n">
-        <v>2005.983069159478</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X8" t="n">
-        <v>1586.840605738788</v>
+        <v>1483.445958355598</v>
       </c>
       <c r="Y8" t="n">
-        <v>1178.554482038442</v>
+        <v>1075.159834655251</v>
       </c>
     </row>
     <row r="9">
@@ -4881,16 +4883,16 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J9" t="n">
-        <v>53.40121652862856</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="K9" t="n">
-        <v>53.40121652862856</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="L9" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>714.2412710704069</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
         <v>1058.729261281022</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>874.0414241659225</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>701.4797126491475</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="D10" t="n">
-        <v>535.6017198506702</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="E10" t="n">
-        <v>535.6017198506702</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>358.8946658124264</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>193.303390838254</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -5005,7 +5007,7 @@
         <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1065.86004288491</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>919.9036140731254</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C11" t="n">
-        <v>919.9036140731254</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D11" t="n">
-        <v>483.9938292475699</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E11" t="n">
-        <v>483.9938292475699</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F11" t="n">
-        <v>56.12639965677763</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G11" t="n">
-        <v>56.12639965677763</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H11" t="n">
-        <v>56.12639965677763</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I11" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J11" t="n">
-        <v>491.3810871096955</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K11" t="n">
-        <v>1185.945282862319</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L11" t="n">
-        <v>1185.945282862319</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="M11" t="n">
-        <v>1185.945282862319</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="N11" t="n">
-        <v>1185.945282862319</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="O11" t="n">
-        <v>1396.102936374607</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="P11" t="n">
-        <v>2090.66713212723</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="Q11" t="n">
-        <v>2637.165918085825</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R11" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S11" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T11" t="n">
-        <v>2806.319982838882</v>
+        <v>4468.437738815723</v>
       </c>
       <c r="U11" t="n">
-        <v>2806.319982838882</v>
+        <v>4209.215436132739</v>
       </c>
       <c r="V11" t="n">
-        <v>2578.487226268036</v>
+        <v>3846.598486066566</v>
       </c>
       <c r="W11" t="n">
-        <v>2173.631771679069</v>
+        <v>3441.743031477599</v>
       </c>
       <c r="X11" t="n">
-        <v>1754.48930825838</v>
+        <v>3022.60056805691</v>
       </c>
       <c r="Y11" t="n">
-        <v>1346.203184558033</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C12" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D12" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E12" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F12" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G12" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I12" t="n">
-        <v>56.12639965677763</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J12" t="n">
-        <v>56.12639965677763</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K12" t="n">
-        <v>56.12639965677763</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L12" t="n">
-        <v>56.12639965677763</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M12" t="n">
-        <v>56.12639965677763</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N12" t="n">
-        <v>56.12639965677763</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O12" t="n">
-        <v>750.6905954094008</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P12" t="n">
-        <v>1445.254791162024</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q12" t="n">
-        <v>1719.366161135586</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S12" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T12" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V12" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W12" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y12" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>765.6202370743899</v>
+        <v>781.8461154418378</v>
       </c>
       <c r="C13" t="n">
-        <v>593.0585255576149</v>
+        <v>609.2844039250627</v>
       </c>
       <c r="D13" t="n">
-        <v>427.1805327591376</v>
+        <v>443.4064111265855</v>
       </c>
       <c r="E13" t="n">
-        <v>257.4225290098748</v>
+        <v>273.6484073773227</v>
       </c>
       <c r="F13" t="n">
-        <v>80.71547497163104</v>
+        <v>96.94135333907892</v>
       </c>
       <c r="G13" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H13" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I13" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J13" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K13" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L13" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M13" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N13" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O13" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P13" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q13" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2672.786009559577</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S13" t="n">
-        <v>2513.544640857574</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T13" t="n">
-        <v>2267.665194436029</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U13" t="n">
-        <v>1989.232193689134</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V13" t="n">
-        <v>1702.276685559565</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W13" t="n">
-        <v>1430.250281145856</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X13" t="n">
-        <v>1184.858526479269</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y13" t="n">
-        <v>957.4388557933771</v>
+        <v>973.664734160825</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>785.1194205777973</v>
+        <v>2104.363000055493</v>
       </c>
       <c r="C14" t="n">
-        <v>785.1194205777973</v>
+        <v>1666.220527238916</v>
       </c>
       <c r="D14" t="n">
-        <v>785.1194205777973</v>
+        <v>1230.31074241336</v>
       </c>
       <c r="E14" t="n">
-        <v>785.1194205777973</v>
+        <v>796.5359975716556</v>
       </c>
       <c r="F14" t="n">
-        <v>747.0711749631575</v>
+        <v>368.6685679808633</v>
       </c>
       <c r="G14" t="n">
-        <v>345.6733435864214</v>
+        <v>368.6685679808633</v>
       </c>
       <c r="H14" t="n">
-        <v>56.54318902963762</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I14" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J14" t="n">
-        <v>491.3810871096955</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K14" t="n">
-        <v>1185.945282862319</v>
+        <v>928.1203912770317</v>
       </c>
       <c r="L14" t="n">
-        <v>1185.945282862319</v>
+        <v>2003.180357529891</v>
       </c>
       <c r="M14" t="n">
-        <v>1185.945282862319</v>
+        <v>2003.180357529891</v>
       </c>
       <c r="N14" t="n">
-        <v>1185.945282862319</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="O14" t="n">
-        <v>1880.509478614942</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="P14" t="n">
-        <v>2090.66713212723</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="Q14" t="n">
-        <v>2637.165918085825</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R14" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S14" t="n">
-        <v>2806.319982838882</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T14" t="n">
-        <v>2806.319982838882</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U14" t="n">
-        <v>2806.319982838882</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V14" t="n">
-        <v>2443.703032772708</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W14" t="n">
-        <v>2038.847578183741</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X14" t="n">
-        <v>1619.705114763052</v>
+        <v>2938.948694240747</v>
       </c>
       <c r="Y14" t="n">
-        <v>1211.418991062705</v>
+        <v>2530.6625705404</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C15" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D15" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E15" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F15" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G15" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I15" t="n">
-        <v>56.16259937258145</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J15" t="n">
-        <v>380.7209243387938</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K15" t="n">
-        <v>1061.454444409171</v>
+        <v>774.5036193892311</v>
       </c>
       <c r="L15" t="n">
-        <v>1061.454444409171</v>
+        <v>774.5036193892311</v>
       </c>
       <c r="M15" t="n">
-        <v>1061.454444409171</v>
+        <v>774.5036193892311</v>
       </c>
       <c r="N15" t="n">
-        <v>1061.454444409171</v>
+        <v>774.5036193892311</v>
       </c>
       <c r="O15" t="n">
-        <v>1061.454444409171</v>
+        <v>774.5036193892311</v>
       </c>
       <c r="P15" t="n">
-        <v>1061.454444409171</v>
+        <v>1594.226785868429</v>
       </c>
       <c r="Q15" t="n">
-        <v>1602.193383041247</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S15" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T15" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V15" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W15" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y15" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1046.524611043334</v>
+        <v>1048.655691403053</v>
       </c>
       <c r="C16" t="n">
-        <v>873.9628995265592</v>
+        <v>876.0939798862784</v>
       </c>
       <c r="D16" t="n">
-        <v>708.0849067280819</v>
+        <v>710.2159870878011</v>
       </c>
       <c r="E16" t="n">
-        <v>538.3269029788192</v>
+        <v>664.63055186622</v>
       </c>
       <c r="F16" t="n">
-        <v>361.6198489405755</v>
+        <v>487.9234978279762</v>
       </c>
       <c r="G16" t="n">
-        <v>196.0285739664031</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H16" t="n">
-        <v>56.12639965677763</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I16" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J16" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K16" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L16" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M16" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N16" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O16" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P16" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q16" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S16" t="n">
-        <v>2672.786009559577</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T16" t="n">
-        <v>2548.569568404973</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U16" t="n">
-        <v>2270.136567658079</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="V16" t="n">
-        <v>1983.181059528509</v>
+        <v>1739.920385221641</v>
       </c>
       <c r="W16" t="n">
-        <v>1711.154655114801</v>
+        <v>1467.893980807932</v>
       </c>
       <c r="X16" t="n">
-        <v>1465.762900448213</v>
+        <v>1467.893980807932</v>
       </c>
       <c r="Y16" t="n">
-        <v>1238.343229762321</v>
+        <v>1240.474310122041</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5516,25 +5518,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>605.8694973157614</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L17" t="n">
-        <v>1680.929463568621</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M17" t="n">
-        <v>2837.977298779172</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N17" t="n">
-        <v>3963.708282215619</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O17" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P17" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
@@ -5589,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.588885023173</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.588885023173</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P18" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q18" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>1017.756527079655</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>845.1948155628801</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>679.3168227644028</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>509.55881901514</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>332.8517649768962</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057259</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961004</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5698,25 +5700,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2697.502628878951</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1209.575145798642</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
         <v>391.8077842004234</v>
@@ -5753,25 +5755,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>605.8694973157614</v>
+        <v>557.2627364873778</v>
       </c>
       <c r="L20" t="n">
-        <v>1680.929463568621</v>
+        <v>1632.322702740237</v>
       </c>
       <c r="M20" t="n">
-        <v>2837.977298779172</v>
+        <v>1632.322702740237</v>
       </c>
       <c r="N20" t="n">
-        <v>3963.708282215619</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O20" t="n">
-        <v>4943.887948785925</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P20" t="n">
-        <v>4943.887948785925</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
@@ -5780,22 +5782,22 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5828,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K21" t="n">
-        <v>782.9943603411569</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L21" t="n">
-        <v>782.9943603411569</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M21" t="n">
-        <v>782.9943603411569</v>
+        <v>1327.049347523737</v>
       </c>
       <c r="N21" t="n">
-        <v>782.9943603411569</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O21" t="n">
-        <v>782.9943603411569</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P21" t="n">
-        <v>1602.717526820355</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q21" t="n">
         <v>1765.500601749588</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1092.659051657336</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C22" t="n">
-        <v>920.0973401405612</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>754.2193473420839</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878954</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.26126017695</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755405</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173566</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759858</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X22" t="n">
-        <v>1476.384721759858</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y22" t="n">
-        <v>1284.477670376323</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6063,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K24" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L24" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M24" t="n">
-        <v>452.8828383974496</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N24" t="n">
-        <v>452.8828383974496</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O24" t="n">
-        <v>452.8828383974496</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q24" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3346.878440713113</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C25" t="n">
-        <v>3174.316729196338</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D25" t="n">
-        <v>3008.438736397861</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E25" t="n">
-        <v>2838.680732648598</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F25" t="n">
-        <v>2661.973678610354</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G25" t="n">
-        <v>2496.382403636182</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H25" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P25" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q25" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>5094.802844496297</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>4848.923398074752</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U25" t="n">
-        <v>4570.490397327858</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V25" t="n">
-        <v>4283.534889198289</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W25" t="n">
-        <v>4011.50848478458</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X25" t="n">
-        <v>3766.116730117992</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y25" t="n">
-        <v>3538.697059432101</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6300,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J27" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P27" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q27" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6358,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F28" t="n">
         <v>267.852115244952</v>
@@ -6409,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6463,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2627364873778</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1632.322702740237</v>
+        <v>1601.005850966132</v>
       </c>
       <c r="M29" t="n">
-        <v>1632.322702740237</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="N29" t="n">
-        <v>2758.053686176684</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O29" t="n">
         <v>3738.23335274699</v>
       </c>
       <c r="P29" t="n">
-        <v>4566.543227580387</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6595,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>1015.441008084184</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="D31" t="n">
         <v>842.8792965674086</v>
@@ -6643,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2194.608003005139</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>2117.975449367836</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W31" t="n">
-        <v>1845.949044954127</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X31" t="n">
-        <v>1600.55729028754</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601648</v>
+        <v>1207.259626803171</v>
       </c>
     </row>
     <row r="32">
@@ -6707,19 +6709,19 @@
         <v>2011.671098481817</v>
       </c>
       <c r="M32" t="n">
-        <v>3168.718933692368</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N32" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>4148.898600262674</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>4977.20847509607</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C33" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D33" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E33" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F33" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G33" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H33" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="M33" t="n">
-        <v>531.6733301892817</v>
+        <v>3879.214741978675</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R33" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S33" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T33" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U33" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V33" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W33" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X33" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y33" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1036.216302815308</v>
+        <v>3184.458419759167</v>
       </c>
       <c r="C34" t="n">
-        <v>863.6545912985331</v>
+        <v>3011.896708242392</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>2846.018715443915</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>2676.260711694652</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>2636.284577945808</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>2636.284577945808</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I34" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J34" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K34" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L34" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M34" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N34" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O34" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P34" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q34" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>5091.624192244353</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>4932.38282354235</v>
       </c>
       <c r="T34" t="n">
-        <v>2538.261260176947</v>
+        <v>4686.503377120805</v>
       </c>
       <c r="U34" t="n">
-        <v>2259.828259430053</v>
+        <v>4408.070376373911</v>
       </c>
       <c r="V34" t="n">
-        <v>1972.872751300483</v>
+        <v>4121.114868244342</v>
       </c>
       <c r="W34" t="n">
-        <v>1700.846346886775</v>
+        <v>3849.088463830633</v>
       </c>
       <c r="X34" t="n">
-        <v>1455.454592220187</v>
+        <v>3603.696709164046</v>
       </c>
       <c r="Y34" t="n">
-        <v>1228.034921534295</v>
+        <v>3376.277038478154</v>
       </c>
     </row>
     <row r="35">
@@ -6938,25 +6940,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688169</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321676</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>3475.865925220631</v>
+        <v>102.2970399865835</v>
       </c>
       <c r="J36" t="n">
-        <v>3800.424250186843</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>811.7546776883914</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>645.8766848899141</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>476.1186811406514</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>299.4116271024076</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>133.8203521282352</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7160,46 +7162,46 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1177.320806523639</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="M38" t="n">
-        <v>2334.36864173419</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N38" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
         <v>4809.322912595856</v>
@@ -7211,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1336.088111831086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3575.440564248063</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C40" t="n">
-        <v>3402.878852731288</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D40" t="n">
-        <v>3237.000859932811</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E40" t="n">
-        <v>3067.242856183548</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F40" t="n">
-        <v>2890.535802145304</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G40" t="n">
-        <v>2724.944527171132</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>3275.930425139968</v>
+        <v>881.808861774569</v>
       </c>
       <c r="M40" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955482</v>
       </c>
       <c r="N40" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O40" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338908</v>
       </c>
       <c r="P40" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.72767530925</v>
       </c>
       <c r="Q40" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="R40" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="S40" t="n">
-        <v>5113.042013538981</v>
+        <v>2559.679081471579</v>
       </c>
       <c r="T40" t="n">
-        <v>5077.485521609701</v>
+        <v>2313.799635050034</v>
       </c>
       <c r="U40" t="n">
-        <v>4799.052520862807</v>
+        <v>2035.366634303139</v>
       </c>
       <c r="V40" t="n">
-        <v>4512.097012733238</v>
+        <v>1748.41112617357</v>
       </c>
       <c r="W40" t="n">
-        <v>4240.070608319529</v>
+        <v>1476.384721759861</v>
       </c>
       <c r="X40" t="n">
-        <v>3994.678853652942</v>
+        <v>1230.992967093274</v>
       </c>
       <c r="Y40" t="n">
-        <v>3767.25918296705</v>
+        <v>1230.992967093274</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1363.953402140615</v>
+        <v>2188.014873871656</v>
       </c>
       <c r="C41" t="n">
-        <v>925.8109293240379</v>
+        <v>1749.872401055079</v>
       </c>
       <c r="D41" t="n">
-        <v>489.9011444984824</v>
+        <v>1313.962616229524</v>
       </c>
       <c r="E41" t="n">
-        <v>56.12639965677763</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F41" t="n">
-        <v>56.12639965677763</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G41" t="n">
-        <v>56.12639965677763</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H41" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I41" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J41" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K41" t="n">
-        <v>56.12639965677763</v>
+        <v>928.1203912770317</v>
       </c>
       <c r="L41" t="n">
-        <v>750.6905954094008</v>
+        <v>928.1203912770317</v>
       </c>
       <c r="M41" t="n">
-        <v>1445.254791162024</v>
+        <v>2085.168226487582</v>
       </c>
       <c r="N41" t="n">
-        <v>2139.818986914647</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="O41" t="n">
-        <v>2806.319982838882</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="P41" t="n">
-        <v>2806.319982838882</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="Q41" t="n">
-        <v>2806.319982838882</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R41" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S41" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T41" t="n">
-        <v>2806.319982838882</v>
+        <v>4468.437738815723</v>
       </c>
       <c r="U41" t="n">
-        <v>2806.319982838882</v>
+        <v>4209.215436132739</v>
       </c>
       <c r="V41" t="n">
-        <v>2617.681559746558</v>
+        <v>3846.598486066566</v>
       </c>
       <c r="W41" t="n">
-        <v>2617.681559746558</v>
+        <v>3441.743031477599</v>
       </c>
       <c r="X41" t="n">
-        <v>2198.539096325869</v>
+        <v>3022.60056805691</v>
       </c>
       <c r="Y41" t="n">
-        <v>1790.252972625522</v>
+        <v>2614.314444356563</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C42" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D42" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E42" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F42" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G42" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I42" t="n">
-        <v>82.19007281723522</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J42" t="n">
-        <v>82.19007281723522</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="K42" t="n">
-        <v>82.19007281723522</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="L42" t="n">
-        <v>82.19007281723522</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="M42" t="n">
-        <v>776.7542685698584</v>
+        <v>1280.238751550126</v>
       </c>
       <c r="N42" t="n">
-        <v>1178.627222503511</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="O42" t="n">
-        <v>1178.627222503511</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="P42" t="n">
-        <v>1178.627222503511</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="Q42" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="R42" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S42" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T42" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V42" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W42" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y42" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1135.184560268659</v>
+        <v>1084.16831070541</v>
       </c>
       <c r="C43" t="n">
-        <v>962.6228487518839</v>
+        <v>911.6065991886354</v>
       </c>
       <c r="D43" t="n">
-        <v>796.7448559534066</v>
+        <v>745.7286063901581</v>
       </c>
       <c r="E43" t="n">
-        <v>626.9868522041439</v>
+        <v>575.9706026408953</v>
       </c>
       <c r="F43" t="n">
-        <v>450.2797981659001</v>
+        <v>399.2635486026515</v>
       </c>
       <c r="G43" t="n">
-        <v>284.6885231917278</v>
+        <v>233.6722736284792</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7863488821023</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I43" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J43" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K43" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L43" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M43" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N43" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O43" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P43" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q43" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2651.368188264949</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S43" t="n">
-        <v>2492.126819562946</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T43" t="n">
-        <v>2246.247373141401</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U43" t="n">
-        <v>2246.247373141401</v>
+        <v>2035.753862906447</v>
       </c>
       <c r="V43" t="n">
-        <v>2071.841008753834</v>
+        <v>1748.798354776877</v>
       </c>
       <c r="W43" t="n">
-        <v>1799.814604340125</v>
+        <v>1748.798354776877</v>
       </c>
       <c r="X43" t="n">
-        <v>1554.422849673538</v>
+        <v>1503.406600110289</v>
       </c>
       <c r="Y43" t="n">
-        <v>1327.003178987646</v>
+        <v>1275.986929424398</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>785.1194205777973</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C44" t="n">
-        <v>346.9769477612206</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D44" t="n">
-        <v>56.12639965677763</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E44" t="n">
-        <v>56.12639965677763</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F44" t="n">
-        <v>56.12639965677763</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G44" t="n">
-        <v>56.12639965677763</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H44" t="n">
-        <v>56.12639965677763</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I44" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J44" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K44" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="L44" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="M44" t="n">
-        <v>56.12639965677763</v>
+        <v>1038.631590390883</v>
       </c>
       <c r="N44" t="n">
-        <v>701.5387406219836</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="O44" t="n">
-        <v>1396.102936374607</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="P44" t="n">
-        <v>2090.66713212723</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="Q44" t="n">
-        <v>2637.165918085825</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R44" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S44" t="n">
-        <v>2806.319982838882</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T44" t="n">
-        <v>2806.319982838882</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U44" t="n">
-        <v>2806.319982838882</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="V44" t="n">
-        <v>2443.703032772708</v>
+        <v>4022.168914933386</v>
       </c>
       <c r="W44" t="n">
-        <v>2038.847578183741</v>
+        <v>3617.31346034442</v>
       </c>
       <c r="X44" t="n">
-        <v>1619.705114763052</v>
+        <v>3198.17099692373</v>
       </c>
       <c r="Y44" t="n">
-        <v>1211.418991062705</v>
+        <v>2789.884873223384</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1649.251966351366</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C45" t="n">
-        <v>1542.795505188008</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D45" t="n">
-        <v>1447.705216334561</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E45" t="n">
-        <v>1353.584801661515</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F45" t="n">
-        <v>1270.200963277676</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G45" t="n">
-        <v>1184.81587354386</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>1143.080221360073</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I45" t="n">
-        <v>1169.14389452053</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J45" t="n">
-        <v>1493.702219486743</v>
+        <v>418.328424285066</v>
       </c>
       <c r="K45" t="n">
-        <v>2148.408266112466</v>
+        <v>596.6048817268485</v>
       </c>
       <c r="L45" t="n">
-        <v>2148.408266112466</v>
+        <v>596.6048817268485</v>
       </c>
       <c r="M45" t="n">
-        <v>2148.408266112466</v>
+        <v>596.6048817268485</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.408266112466</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="O45" t="n">
-        <v>2148.408266112466</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="P45" t="n">
-        <v>2148.408266112466</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="Q45" t="n">
-        <v>2689.147204744542</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="R45" t="n">
-        <v>2806.319982838882</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S45" t="n">
-        <v>2742.864545287265</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T45" t="n">
-        <v>2612.685901617866</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>2436.349354617835</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V45" t="n">
-        <v>2237.231836679834</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W45" t="n">
-        <v>2051.909082413028</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>1897.041646651908</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y45" t="n">
-        <v>1770.555867431129</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>906.6224367337088</v>
+        <v>944.266136395785</v>
       </c>
       <c r="C46" t="n">
-        <v>734.0607252169337</v>
+        <v>771.7044248790099</v>
       </c>
       <c r="D46" t="n">
-        <v>568.1827324184565</v>
+        <v>605.8264320805326</v>
       </c>
       <c r="E46" t="n">
-        <v>398.4247286691938</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F46" t="n">
-        <v>221.71767463095</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G46" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H46" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I46" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J46" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K46" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L46" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M46" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N46" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O46" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P46" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q46" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2651.368188264949</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S46" t="n">
-        <v>2492.126819562946</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T46" t="n">
-        <v>2408.667394095348</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U46" t="n">
-        <v>2130.234393348453</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V46" t="n">
-        <v>1843.278885218884</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W46" t="n">
-        <v>1571.252480805175</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X46" t="n">
-        <v>1325.860726138588</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y46" t="n">
-        <v>1098.441055452696</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
   </sheetData>
@@ -7979,28 +7981,28 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>640.5448952297621</v>
+      </c>
+      <c r="M2" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O2" t="n">
-        <v>585.1784344521124</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>345.0097498941942</v>
+      </c>
+      <c r="N3" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P3" t="n">
-        <v>667.5152066078567</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>200.3264657984396</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8216,19 +8218,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L5" t="n">
-        <v>145.5272350047205</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -8289,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8307,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.5152066078568</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>226.6534083847603</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8450,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>585.1784344521124</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8529,19 +8531,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>20.13097499434639</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8690,7 +8692,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8699,13 +8701,13 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>809.0782778761422</v>
       </c>
       <c r="O11" t="n">
-        <v>212.2804580932202</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8763,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8781,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>701.5799957097205</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
-        <v>276.880171690467</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,25 +8926,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>162.8103194923631</v>
       </c>
       <c r="O14" t="n">
-        <v>701.5799957097204</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>212.2804580932202</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9000,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.03656536949880973</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>687.6096162327044</v>
@@ -9021,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>46.07100690393327</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9164,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>508.6956131767492</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -9176,7 +9178,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9185,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,22 +9239,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9261,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,13 +9403,13 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>508.6956131767492</v>
+        <v>459.5978749662608</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -9416,13 +9418,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,31 +9476,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>442.8800547735873</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>164.4273484133669</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
@@ -9644,22 +9646,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>274.84172772886</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9723,22 +9725,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,22 +9950,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9972,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,19 +10111,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>459.5978749662608</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>231.4545770548052</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10355,10 +10357,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10367,10 +10369,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>137.2055943867781</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>433.7499898166684</v>
       </c>
       <c r="N33" t="n">
         <v>1246.290173293239</v>
@@ -10586,10 +10588,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -10601,13 +10603,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10820,16 +10822,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -10838,10 +10840,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>508.6956131767483</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697543</v>
@@ -10896,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,28 +11062,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>701.5799957097205</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>701.5799957097202</v>
+        <v>79.99429024216988</v>
       </c>
       <c r="O41" t="n">
-        <v>673.2333292163985</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11145,10 +11147,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="N42" t="n">
-        <v>405.932276700659</v>
+        <v>481.5869790379163</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11157,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -11303,16 +11305,16 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>954.4055465374038</v>
       </c>
       <c r="N44" t="n">
-        <v>651.931657540612</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>701.5799957097204</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11370,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158822</v>
+        <v>180.0772297391742</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11385,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11394,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23258,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,13 +23311,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>133.4363515603742</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>329.0704884999246</v>
       </c>
     </row>
     <row r="12">
@@ -23428,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.5921776627257</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23495,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>385.920992136391</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>14.08936903582639</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23659,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>122.9308428424049</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23703,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>120.4463752142712</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23902,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>161.926849064972</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>3.146865729424235</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>102.9863699957321</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>35.15749310933364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24379,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24412,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627253</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24610,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24841,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>208.2197249473435</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.8531101735159</v>
       </c>
     </row>
     <row r="32">
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>143.6516710866792</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>135.3636110865054</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25312,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25327,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>107.2592358276482</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25360,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>52.94985625021928</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25599,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>208.2197249473419</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -25634,16 +25636,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>328.6578670207936</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -25679,16 +25681,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>172.2387417041118</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,13 +25842,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>29.99283294136552</v>
       </c>
       <c r="V43" t="n">
-        <v>111.4236523045825</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>155.2557639217728</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>143.6086443539014</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -26074,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>160.7958207444072</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>366326.959461869</v>
+        <v>519025.8358417386</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>366326.9594618689</v>
+        <v>519025.8358417384</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>553467.8969204961</v>
+        <v>553467.8969204962</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>553467.8969204961</v>
+        <v>553467.896920496</v>
       </c>
     </row>
     <row r="10">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>366326.9594618688</v>
+        <v>519025.8358417384</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>366326.9594618689</v>
+        <v>519025.8358417386</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>388706.8069205462</v>
+        <v>388706.8069205461</v>
       </c>
       <c r="C2" t="n">
-        <v>388706.8069205462</v>
+        <v>388706.806920546</v>
       </c>
       <c r="D2" t="n">
-        <v>388706.8069205461</v>
+        <v>388706.806920546</v>
       </c>
       <c r="E2" t="n">
-        <v>252817.8237739504</v>
+        <v>358201.8164666983</v>
       </c>
       <c r="F2" t="n">
-        <v>252817.8237739504</v>
+        <v>358201.8164666983</v>
       </c>
       <c r="G2" t="n">
         <v>381971.7484995804</v>
       </c>
       <c r="H2" t="n">
-        <v>381971.7484995805</v>
+        <v>381971.7484995804</v>
       </c>
       <c r="I2" t="n">
-        <v>381971.7484995803</v>
+        <v>381971.7484995804</v>
       </c>
       <c r="J2" t="n">
         <v>381971.7484995804</v>
@@ -26341,19 +26343,19 @@
         <v>381971.7484995804</v>
       </c>
       <c r="L2" t="n">
-        <v>381971.7484995803</v>
+        <v>381971.7484995804</v>
       </c>
       <c r="M2" t="n">
         <v>381971.7484995804</v>
       </c>
       <c r="N2" t="n">
-        <v>381971.7484995803</v>
+        <v>381971.7484995804</v>
       </c>
       <c r="O2" t="n">
-        <v>252817.8237739504</v>
+        <v>358201.8164666984</v>
       </c>
       <c r="P2" t="n">
-        <v>252817.8237739504</v>
+        <v>358201.8164666984</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>10170.99660045619</v>
+        <v>150665.753571748</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>158059.4769461092</v>
+        <v>29089.80917260779</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8489.081703340786</v>
+        <v>125751.0883356908</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,16 +26420,16 @@
         <v>122130.8532251353</v>
       </c>
       <c r="C4" t="n">
-        <v>122130.8532251353</v>
+        <v>122130.8532251352</v>
       </c>
       <c r="D4" t="n">
         <v>122130.8532251352</v>
       </c>
       <c r="E4" t="n">
-        <v>9428.555608343533</v>
+        <v>13358.73276318392</v>
       </c>
       <c r="F4" t="n">
-        <v>9428.555608343537</v>
+        <v>13358.73276318392</v>
       </c>
       <c r="G4" t="n">
         <v>14245.20557049264</v>
@@ -26454,10 +26456,10 @@
         <v>14245.20557049264</v>
       </c>
       <c r="O4" t="n">
-        <v>9428.555608343537</v>
+        <v>13358.73276318392</v>
       </c>
       <c r="P4" t="n">
-        <v>9428.555608343535</v>
+        <v>13358.73276318392</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26478,10 @@
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="F5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="P5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.2754823288</v>
       </c>
     </row>
     <row r="6">
@@ -26519,28 +26521,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-31336.26945039164</v>
+        <v>-31336.26945039172</v>
       </c>
       <c r="C6" t="n">
-        <v>192363.4291336532</v>
+        <v>192363.4291336531</v>
       </c>
       <c r="D6" t="n">
-        <v>192363.4291336532</v>
+        <v>192363.4291336531</v>
       </c>
       <c r="E6" t="n">
-        <v>190562.2078259997</v>
+        <v>122912.0546494376</v>
       </c>
       <c r="F6" t="n">
-        <v>200733.2044264559</v>
+        <v>273577.8082211856</v>
       </c>
       <c r="G6" t="n">
-        <v>131948.827377186</v>
+        <v>260918.4951506875</v>
       </c>
       <c r="H6" t="n">
-        <v>290008.3043232953</v>
+        <v>290008.3043232952</v>
       </c>
       <c r="I6" t="n">
-        <v>290008.3043232951</v>
+        <v>290008.3043232952</v>
       </c>
       <c r="J6" t="n">
         <v>115356.9556055891</v>
@@ -26549,19 +26551,19 @@
         <v>290008.3043232952</v>
       </c>
       <c r="L6" t="n">
-        <v>290008.3043232951</v>
+        <v>290008.3043232952</v>
       </c>
       <c r="M6" t="n">
-        <v>281519.2226199544</v>
+        <v>164257.2159876045</v>
       </c>
       <c r="N6" t="n">
-        <v>290008.3043232951</v>
+        <v>290008.3043232952</v>
       </c>
       <c r="O6" t="n">
-        <v>200733.2044264559</v>
+        <v>273577.8082211856</v>
       </c>
       <c r="P6" t="n">
-        <v>200733.2044264559</v>
+        <v>273577.8082211856</v>
       </c>
     </row>
   </sheetData>
@@ -26796,10 +26798,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="F4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="P4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
     </row>
   </sheetData>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>34.06478910186348</v>
+        <v>504.611034877814</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>576.680507675025</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186348</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186348</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>576.680507675025</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,10 +27381,10 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>185.8757317238697</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>297.8872386778023</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27588,16 +27590,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>117.7661826744372</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>143.6516710866791</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27628,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27679,10 +27681,10 @@
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>369.8422500230731</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>253.4649560972575</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27779,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>81.7827269140527</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,13 +27830,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>111.4236523045826</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27856,13 +27858,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>226.8849511583581</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>328.833030588585</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27871,7 +27873,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,10 +27909,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28011,10 +28013,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>54.79268646174569</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -28029,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>131.2385495991667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34699,28 +34701,28 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>640.5448952297621</v>
+      </c>
+      <c r="M2" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O2" t="n">
-        <v>585.1784344521124</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>345.0097498941942</v>
+      </c>
+      <c r="N3" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P3" t="n">
-        <v>667.5152066078567</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>200.3264657984396</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34936,19 +34938,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L5" t="n">
-        <v>145.5272350047205</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -35009,10 +35011,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35027,13 +35029,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.5152066078568</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>226.6534083847603</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35170,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>585.1784344521124</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35249,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>20.13097499434639</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35410,7 +35412,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -35419,19 +35421,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>809.0782778761422</v>
       </c>
       <c r="O11" t="n">
-        <v>212.2804580932202</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35501,16 +35503,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>701.5799957097205</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
-        <v>276.880171690467</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35571,7 +35573,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>162.8103194923631</v>
       </c>
       <c r="O14" t="n">
-        <v>701.5799957097204</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>212.2804580932202</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.03656536949880973</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>687.6096162327044</v>
@@ -35741,10 +35743,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>828.0031984638365</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>46.07100690393327</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35808,7 +35810,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35884,7 +35886,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>508.6956131767492</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -35893,10 +35895,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35905,7 +35907,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35981,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,13 +36123,13 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>508.6956131767492</v>
+        <v>459.5978749662608</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -36136,13 +36138,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>442.8800547735873</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638367</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>164.4273484133669</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>274.84172772886</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36443,22 +36445,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36528,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36692,10 +36694,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>459.5978749662608</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>231.4545770548052</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36853,7 +36855,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>-6.084382722536545e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37075,10 +37077,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37087,10 +37089,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>137.2055943867781</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,7 +37156,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>433.7499898166684</v>
       </c>
       <c r="N33" t="n">
         <v>1246.290173293239</v>
@@ -37224,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37239,13 +37241,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,10 +37308,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -37321,13 +37323,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632091</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J36" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37403,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37540,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -37558,10 +37560,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>508.6956131767483</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
         <v>170.862691669754</v>
@@ -37616,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37631,19 +37633,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080445</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37713,13 +37715,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>701.5799957097205</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N41" t="n">
-        <v>701.5799957097202</v>
+        <v>79.99429024216988</v>
       </c>
       <c r="O41" t="n">
-        <v>673.2333292163985</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37865,10 +37867,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="N42" t="n">
-        <v>405.932276700659</v>
+        <v>481.5869790379163</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37877,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37941,7 +37943,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -38023,22 +38025,22 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>954.4055465374038</v>
       </c>
       <c r="N44" t="n">
-        <v>651.931657540612</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>701.5799957097204</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158822</v>
+        <v>180.0772297391742</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38105,7 +38107,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38114,10 +38116,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38178,7 +38180,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1665132.693608487</v>
+        <v>1664526.605979589</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16659530.99074004</v>
+        <v>16659530.99074005</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>606553.2040797146</v>
+        <v>606553.2040797166</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>429.4369973932878</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>214.5368897552615</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -721,13 +721,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>214.9311683192073</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>131.9969996527466</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>146.3752975271659</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>396.6703348995699</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>150.7383063660856</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1059,7 +1059,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>94.50264048967814</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -1071,7 +1071,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>157.8824880649888</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>94.75572470629932</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>146.1224224236111</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1293,13 +1293,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>116.0434079398616</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1308,7 +1308,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>173.7040795765152</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>145.4261460119187</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1438,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>75.13277396341846</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1542,13 +1542,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>3.139541480022982</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>18.05677735225759</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1621,13 +1621,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>272.1494839753895</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>62.61079093391727</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1773,16 +1773,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>45.12958086936525</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>126.4702673604307</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -1830,7 +1830,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1864,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2010,19 +2010,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>28.46824604904392</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>2.008513159458598</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973306759</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2070,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2134,7 +2134,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2256,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308167891</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>172.6623007436936</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2493,7 +2493,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2724,10 +2724,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>35.34780583513513</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -2955,7 +2955,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2967,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3018,7 +3018,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>2.292363805516904</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -3198,13 +3198,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>39.57637241135595</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3441,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>125.6544692828921</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3486,7 +3486,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3556,7 +3556,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
         <v>256.6300796561533</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>136.950576281578</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3681,7 +3681,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>140.4342819615944</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3729,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3748,19 +3748,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>100.7791303724942</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>354.5522175742578</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>245.6558377980602</v>
+        <v>67.4289457920829</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.7808108582859</v>
+        <v>10.1507312021306</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -4033,7 +4033,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4149,7 +4149,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>3.13954148002301</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>114.8528499950181</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1789.512437976118</v>
+        <v>981.0148405224497</v>
       </c>
       <c r="C2" t="n">
-        <v>1351.369965159541</v>
+        <v>946.912771746277</v>
       </c>
       <c r="D2" t="n">
-        <v>915.4601803339856</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E2" t="n">
-        <v>481.6854354922808</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F2" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G2" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L2" t="n">
-        <v>687.540662806093</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M2" t="n">
-        <v>1348.380717347871</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N2" t="n">
-        <v>2009.22077188965</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O2" t="n">
-        <v>2670.060826431428</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>2670.060826431428</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
@@ -4360,22 +4360,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2670.060826431428</v>
+        <v>2453.356897385709</v>
       </c>
       <c r="U2" t="n">
-        <v>2410.838523748444</v>
+        <v>2194.134594702726</v>
       </c>
       <c r="V2" t="n">
-        <v>2048.221573682271</v>
+        <v>1831.517644636552</v>
       </c>
       <c r="W2" t="n">
-        <v>1831.119383460849</v>
+        <v>1830.70259408799</v>
       </c>
       <c r="X2" t="n">
-        <v>1816.017324080564</v>
+        <v>1815.600534707704</v>
       </c>
       <c r="Y2" t="n">
-        <v>1811.771604420622</v>
+        <v>1407.314411007358</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>1406.536348780554</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>1311.446059927107</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>1217.325645254061</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>1006.821064952619</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>1006.821064952619</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>1006.821064952619</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>1006.821064952619</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L3" t="n">
-        <v>1006.821064952619</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M3" t="n">
-        <v>1348.380717347871</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N3" t="n">
-        <v>2009.22077188965</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O3" t="n">
-        <v>2670.060826431428</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P3" t="n">
-        <v>2670.060826431428</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>2670.060826431428</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>2100.97268027238</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>1915.649926005574</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>1760.782490244454</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4488,13 +4488,13 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>139.9809016933184</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K4" t="n">
-        <v>414.739356264454</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L4" t="n">
-        <v>832.9492380324151</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M4" t="n">
         <v>1292.433105213328</v>
@@ -4512,22 +4512,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434796</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T4" t="n">
-        <v>2489.401636434796</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U4" t="n">
-        <v>2356.071333755254</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V4" t="n">
-        <v>2069.115825625685</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="W4" t="n">
-        <v>1797.089421211977</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="X4" t="n">
         <v>1551.697666545389</v>
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2479.623634536778</v>
+        <v>573.6111384008032</v>
       </c>
       <c r="C5" t="n">
-        <v>2041.481161720201</v>
+        <v>539.5090696246305</v>
       </c>
       <c r="D5" t="n">
-        <v>1605.571376894645</v>
+        <v>507.639688839479</v>
       </c>
       <c r="E5" t="n">
-        <v>1171.796632052941</v>
+        <v>477.9053480381783</v>
       </c>
       <c r="F5" t="n">
-        <v>743.9292024621484</v>
+        <v>454.07832248779</v>
       </c>
       <c r="G5" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
         <v>53.40121652862856</v>
@@ -4570,16 +4570,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>488.6559039815464</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
         <v>1293.567921177998</v>
@@ -4597,22 +4597,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.060826431428</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V5" t="n">
-        <v>2670.060826431428</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W5" t="n">
-        <v>2669.245775882865</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X5" t="n">
-        <v>2654.14371650258</v>
+        <v>1408.196832586058</v>
       </c>
       <c r="Y5" t="n">
-        <v>2501.882800981281</v>
+        <v>999.910708885711</v>
       </c>
     </row>
     <row r="6">
@@ -4652,16 +4652,16 @@
         <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
         <v>1058.729261281022</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1132.45937714051</v>
+        <v>922.1364226482438</v>
       </c>
       <c r="C7" t="n">
-        <v>959.897665623735</v>
+        <v>749.5747111314687</v>
       </c>
       <c r="D7" t="n">
-        <v>794.0196728252577</v>
+        <v>654.1174985156322</v>
       </c>
       <c r="E7" t="n">
-        <v>624.2616690759949</v>
+        <v>484.3594947663694</v>
       </c>
       <c r="F7" t="n">
-        <v>447.554615037751</v>
+        <v>307.6524407281256</v>
       </c>
       <c r="G7" t="n">
-        <v>281.9633400635787</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H7" t="n">
         <v>142.0611657539532</v>
@@ -4749,28 +4749,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T7" t="n">
-        <v>2243.522190013252</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U7" t="n">
-        <v>2243.522190013252</v>
+        <v>2145.748379262988</v>
       </c>
       <c r="V7" t="n">
-        <v>1956.566681883682</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W7" t="n">
-        <v>1797.089421211977</v>
+        <v>1586.76646671971</v>
       </c>
       <c r="X7" t="n">
-        <v>1551.697666545389</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y7" t="n">
-        <v>1324.277995859497</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>648.8602641703436</v>
+        <v>2480.040423909638</v>
       </c>
       <c r="C8" t="n">
-        <v>210.7177913537669</v>
+        <v>2041.897951093061</v>
       </c>
       <c r="D8" t="n">
-        <v>178.8484105686155</v>
+        <v>1605.988166267505</v>
       </c>
       <c r="E8" t="n">
-        <v>149.1140697673148</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F8" t="n">
-        <v>53.40121652862856</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>53.40121652862856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>632.7278666362198</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>632.7278666362198</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>632.7278666362198</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>632.7278666362198</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4834,22 +4834,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2522.462419942932</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2522.462419942932</v>
       </c>
       <c r="V8" t="n">
-        <v>2307.443876365254</v>
+        <v>2522.462419942932</v>
       </c>
       <c r="W8" t="n">
-        <v>1902.588421776288</v>
+        <v>2521.647369394369</v>
       </c>
       <c r="X8" t="n">
-        <v>1483.445958355598</v>
+        <v>2506.545310014084</v>
       </c>
       <c r="Y8" t="n">
-        <v>1075.159834655251</v>
+        <v>2502.299590354141</v>
       </c>
     </row>
     <row r="9">
@@ -4883,10 +4883,10 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J9" t="n">
-        <v>377.9595414948409</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K9" t="n">
-        <v>1038.799596036619</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L9" t="n">
         <v>1058.729261281022</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>741.4772326516127</v>
+        <v>992.5572028308845</v>
       </c>
       <c r="C10" t="n">
-        <v>624.2616690759949</v>
+        <v>819.9954913141095</v>
       </c>
       <c r="D10" t="n">
-        <v>624.2616690759949</v>
+        <v>654.1174985156322</v>
       </c>
       <c r="E10" t="n">
-        <v>624.2616690759949</v>
+        <v>484.3594947663694</v>
       </c>
       <c r="F10" t="n">
-        <v>447.554615037751</v>
+        <v>307.6524407281256</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635787</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H10" t="n">
         <v>142.0611657539532</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2494.602160192524</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2216.169159445629</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136788</v>
+        <v>1929.213651316059</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.107276723079</v>
+        <v>1657.187246902351</v>
       </c>
       <c r="X10" t="n">
-        <v>1160.715522056492</v>
+        <v>1411.795492235764</v>
       </c>
       <c r="Y10" t="n">
-        <v>933.2958513705998</v>
+        <v>1184.375821549872</v>
       </c>
     </row>
     <row r="11">
@@ -5035,10 +5035,10 @@
         <v>383.3170432484974</v>
       </c>
       <c r="H11" t="n">
-        <v>94.18688869171368</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I11" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J11" t="n">
         <v>529.0247867717716</v>
@@ -5047,43 +5047,43 @@
         <v>1363.37507872995</v>
       </c>
       <c r="L11" t="n">
-        <v>1363.37507872995</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="M11" t="n">
-        <v>1363.37507872995</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="N11" t="n">
-        <v>2164.36257382733</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="O11" t="n">
-        <v>3144.542240397637</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P11" t="n">
-        <v>3972.852115231033</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q11" t="n">
-        <v>4519.350901189628</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R11" t="n">
-        <v>4688.504965942684</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S11" t="n">
-        <v>4688.504965942684</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="T11" t="n">
-        <v>4468.437738815723</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="U11" t="n">
-        <v>4209.215436132739</v>
+        <v>4541.609868960946</v>
       </c>
       <c r="V11" t="n">
-        <v>3846.598486066566</v>
+        <v>4178.992918894773</v>
       </c>
       <c r="W11" t="n">
-        <v>3441.743031477599</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="X11" t="n">
-        <v>3022.60056805691</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y11" t="n">
         <v>2946.70887718477</v>
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>599.9418443101465</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C12" t="n">
-        <v>493.4853831467888</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D12" t="n">
         <v>398.395094293342</v>
@@ -5114,7 +5114,7 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I12" t="n">
         <v>119.8337724793113</v>
@@ -5144,16 +5144,16 @@
         <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
-        <v>1757.009860797663</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S12" t="n">
-        <v>1693.554423246046</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T12" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1387.039232576616</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V12" t="n">
         <v>1187.921714638615</v>
@@ -5162,10 +5162,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>847.7315246106889</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y12" t="n">
-        <v>721.2457453899096</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>781.8461154418378</v>
+        <v>962.5053054384693</v>
       </c>
       <c r="C13" t="n">
-        <v>609.2844039250627</v>
+        <v>789.9435939216943</v>
       </c>
       <c r="D13" t="n">
-        <v>443.4064111265855</v>
+        <v>624.065601123217</v>
       </c>
       <c r="E13" t="n">
-        <v>273.6484073773227</v>
+        <v>454.3075973739543</v>
       </c>
       <c r="F13" t="n">
-        <v>96.94135333907892</v>
+        <v>277.6005433357104</v>
       </c>
       <c r="G13" t="n">
-        <v>93.77009931885368</v>
+        <v>112.0092683615381</v>
       </c>
       <c r="H13" t="n">
-        <v>93.77009931885368</v>
+        <v>112.0092683615381</v>
       </c>
       <c r="I13" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J13" t="n">
         <v>180.3497844835435</v>
@@ -5223,28 +5223,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S13" t="n">
-        <v>2529.770519225022</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="T13" t="n">
-        <v>2283.891072803477</v>
+        <v>2464.550262800109</v>
       </c>
       <c r="U13" t="n">
-        <v>2005.458072056582</v>
+        <v>2186.117262053214</v>
       </c>
       <c r="V13" t="n">
-        <v>1718.502563927013</v>
+        <v>1899.161753923644</v>
       </c>
       <c r="W13" t="n">
-        <v>1446.476159513304</v>
+        <v>1627.135349509936</v>
       </c>
       <c r="X13" t="n">
-        <v>1201.084404846717</v>
+        <v>1381.743594843348</v>
       </c>
       <c r="Y13" t="n">
-        <v>973.664734160825</v>
+        <v>1154.323924157457</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2104.363000055493</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C14" t="n">
-        <v>1666.220527238916</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D14" t="n">
-        <v>1230.31074241336</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E14" t="n">
-        <v>796.5359975716556</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F14" t="n">
-        <v>368.6685679808633</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G14" t="n">
-        <v>368.6685679808633</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H14" t="n">
-        <v>93.77009931885368</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I14" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J14" t="n">
-        <v>93.77009931885368</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K14" t="n">
-        <v>928.1203912770317</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L14" t="n">
-        <v>2003.180357529891</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="M14" t="n">
-        <v>2003.180357529891</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="N14" t="n">
-        <v>2164.36257382733</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="O14" t="n">
-        <v>3144.542240397637</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P14" t="n">
-        <v>3972.852115231033</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q14" t="n">
-        <v>4519.350901189628</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R14" t="n">
-        <v>4688.504965942684</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S14" t="n">
-        <v>4604.853092126521</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T14" t="n">
-        <v>4384.78586499956</v>
+        <v>4541.609868960946</v>
       </c>
       <c r="U14" t="n">
-        <v>4125.563562316576</v>
+        <v>4541.609868960946</v>
       </c>
       <c r="V14" t="n">
-        <v>3762.946612250403</v>
+        <v>4178.992918894773</v>
       </c>
       <c r="W14" t="n">
-        <v>3358.091157661436</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="X14" t="n">
-        <v>2938.948694240747</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y14" t="n">
-        <v>2530.6625705404</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>599.9418443101465</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C15" t="n">
-        <v>493.4853831467888</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D15" t="n">
         <v>398.395094293342</v>
@@ -5351,46 +5351,46 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I15" t="n">
-        <v>93.77009931885368</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J15" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K15" t="n">
-        <v>774.5036193892311</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L15" t="n">
-        <v>774.5036193892311</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M15" t="n">
-        <v>774.5036193892311</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N15" t="n">
-        <v>774.5036193892311</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O15" t="n">
-        <v>774.5036193892311</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P15" t="n">
-        <v>1594.226785868429</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q15" t="n">
         <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
-        <v>1757.009860797663</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S15" t="n">
-        <v>1693.554423246046</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T15" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1387.039232576616</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V15" t="n">
         <v>1187.921714638615</v>
@@ -5399,10 +5399,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>847.7315246106889</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y15" t="n">
-        <v>721.2457453899096</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1048.655691403053</v>
+        <v>995.0825554554531</v>
       </c>
       <c r="C16" t="n">
-        <v>876.0939798862784</v>
+        <v>822.520843938678</v>
       </c>
       <c r="D16" t="n">
-        <v>710.2159870878011</v>
+        <v>656.6428511402007</v>
       </c>
       <c r="E16" t="n">
-        <v>664.63055186622</v>
+        <v>486.884847390938</v>
       </c>
       <c r="F16" t="n">
-        <v>487.9234978279762</v>
+        <v>310.1777933526942</v>
       </c>
       <c r="G16" t="n">
-        <v>322.3322228538038</v>
+        <v>310.1777933526942</v>
       </c>
       <c r="H16" t="n">
-        <v>182.4300485441784</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I16" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J16" t="n">
         <v>180.3497844835435</v>
@@ -5478,10 +5478,10 @@
         <v>1467.893980807932</v>
       </c>
       <c r="X16" t="n">
-        <v>1467.893980807932</v>
+        <v>1222.502226141345</v>
       </c>
       <c r="Y16" t="n">
-        <v>1240.474310122041</v>
+        <v>995.0825554554531</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
@@ -5545,22 +5545,22 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L18" t="n">
-        <v>1056.803889081883</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M18" t="n">
-        <v>1056.803889081883</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N18" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O18" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1017.756527079655</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C19" t="n">
-        <v>845.1948155628801</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D19" t="n">
-        <v>679.3168227644028</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E19" t="n">
-        <v>509.55881901514</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>332.8517649768962</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057259</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961004</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5697,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y19" t="n">
-        <v>1209.575145798642</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="20">
@@ -5740,46 +5740,46 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2627364873778</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1632.322702740237</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M20" t="n">
-        <v>1632.322702740237</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N20" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
         <v>4809.322912595856</v>
@@ -5791,13 +5791,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L21" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M21" t="n">
-        <v>1327.049347523737</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N21" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O21" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5934,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878954</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.26126017695</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755405</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2117.975449367836</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>4294.449917128814</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M24" t="n">
-        <v>1300.985674363279</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N24" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6174,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6302,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M27" t="n">
-        <v>1300.985674363279</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N27" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>811.7546776883914</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C28" t="n">
-        <v>639.1929661716164</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D28" t="n">
-        <v>473.3149733731391</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E28" t="n">
-        <v>303.5569696238763</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G28" t="n">
         <v>102.2608402707796</v>
@@ -6408,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.384721759858</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X28" t="n">
-        <v>1230.99296709327</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y28" t="n">
-        <v>1003.573296407379</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="29">
@@ -6463,25 +6463,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>1601.005850966132</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2758.053686176683</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2758.053686176683</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3738.23335274699</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4566.543227580386</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
         <v>5113.04201353898</v>
@@ -6545,19 +6545,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1015.441008084184</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>842.8792965674086</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6645,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1207.259626803171</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6703,25 +6703,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2011.671098481817</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>3449.802252060173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>3449.802252060173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>3449.802252060173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L33" t="n">
-        <v>3449.802252060173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M33" t="n">
-        <v>3879.214741978675</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N33" t="n">
-        <v>5113.042013538981</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O33" t="n">
-        <v>5113.042013538981</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P33" t="n">
-        <v>5113.042013538981</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>5113.042013538981</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3184.458419759167</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>3011.896708242392</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>2846.018715443915</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>2676.260711694652</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>2636.284577945808</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>2636.284577945808</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K34" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M34" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N34" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O34" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P34" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q34" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>5091.624192244353</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>4932.38282354235</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>4686.503377120805</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>4408.070376373911</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>4121.114868244342</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>3849.088463830633</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>3603.696709164046</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>3376.277038478154</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6940,25 +6940,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>102.2608402707796</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>306.120802776629</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>1463.16863798718</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7013,25 +7013,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2970399865835</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>426.8553649527958</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7119,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2411.337553830592</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2132.904553083697</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="38">
@@ -7162,46 +7162,46 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L38" t="n">
-        <v>1463.168637987181</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M38" t="n">
-        <v>1463.168637987181</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
         <v>4809.322912595856</v>
@@ -7213,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7256,19 +7256,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P39" t="n">
         <v>1107.588885023173</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1092.659051657336</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C40" t="n">
-        <v>920.0973401405612</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D40" t="n">
-        <v>754.2193473420839</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7338,46 +7338,46 @@
         <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>881.808861774569</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1341.292728955482</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1783.551532113127</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2203.220781338908</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.72767530925</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173582</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173582</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050034</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303139</v>
+        <v>2259.828259430053</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.41112617357</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W40" t="n">
-        <v>1476.384721759861</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X40" t="n">
-        <v>1230.992967093274</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y40" t="n">
-        <v>1230.992967093274</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2188.014873871656</v>
+        <v>2188.014873871654</v>
       </c>
       <c r="C41" t="n">
-        <v>1749.872401055079</v>
+        <v>1749.872401055077</v>
       </c>
       <c r="D41" t="n">
-        <v>1313.962616229524</v>
+        <v>1313.962616229522</v>
       </c>
       <c r="E41" t="n">
-        <v>1212.165514843166</v>
+        <v>880.1878713878168</v>
       </c>
       <c r="F41" t="n">
-        <v>784.2980852523735</v>
+        <v>452.3204417970246</v>
       </c>
       <c r="G41" t="n">
-        <v>382.9002538756374</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="H41" t="n">
-        <v>93.77009931885368</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I41" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J41" t="n">
-        <v>93.77009931885368</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K41" t="n">
-        <v>928.1203912770317</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L41" t="n">
-        <v>928.1203912770317</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M41" t="n">
-        <v>2085.168226487582</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N41" t="n">
-        <v>2164.36257382733</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O41" t="n">
-        <v>3144.542240397637</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P41" t="n">
-        <v>3972.852115231033</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q41" t="n">
-        <v>4519.350901189628</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R41" t="n">
-        <v>4688.504965942684</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S41" t="n">
-        <v>4688.504965942684</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="T41" t="n">
-        <v>4468.437738815723</v>
+        <v>4468.437738815721</v>
       </c>
       <c r="U41" t="n">
-        <v>4209.215436132739</v>
+        <v>4209.215436132738</v>
       </c>
       <c r="V41" t="n">
-        <v>3846.598486066566</v>
+        <v>3846.598486066564</v>
       </c>
       <c r="W41" t="n">
-        <v>3441.743031477599</v>
+        <v>3441.743031477597</v>
       </c>
       <c r="X41" t="n">
-        <v>3022.60056805691</v>
+        <v>3022.600568056908</v>
       </c>
       <c r="Y41" t="n">
-        <v>2614.314444356563</v>
+        <v>2614.314444356562</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>599.9418443101465</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C42" t="n">
-        <v>493.4853831467888</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D42" t="n">
         <v>398.395094293342</v>
@@ -7484,46 +7484,46 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I42" t="n">
         <v>119.8337724793113</v>
       </c>
       <c r="J42" t="n">
-        <v>119.8337724793113</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K42" t="n">
-        <v>119.8337724793113</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L42" t="n">
-        <v>119.8337724793113</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M42" t="n">
-        <v>1280.238751550126</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N42" t="n">
-        <v>1757.009860797663</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O42" t="n">
-        <v>1757.009860797663</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P42" t="n">
-        <v>1757.009860797663</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q42" t="n">
-        <v>1757.009860797663</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
-        <v>1757.009860797663</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S42" t="n">
-        <v>1693.554423246046</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T42" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>1387.039232576616</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V42" t="n">
         <v>1187.921714638615</v>
@@ -7532,10 +7532,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>847.7315246106889</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y42" t="n">
-        <v>721.2457453899096</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1084.16831070541</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C43" t="n">
-        <v>911.6065991886354</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D43" t="n">
-        <v>745.7286063901581</v>
+        <v>834.3885556154826</v>
       </c>
       <c r="E43" t="n">
-        <v>575.9706026408953</v>
+        <v>664.6305518662199</v>
       </c>
       <c r="F43" t="n">
-        <v>399.2635486026515</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="G43" t="n">
-        <v>233.6722736284792</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H43" t="n">
-        <v>93.77009931885368</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I43" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J43" t="n">
         <v>180.3497844835435</v>
@@ -7593,28 +7593,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S43" t="n">
-        <v>2529.770519225022</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="T43" t="n">
-        <v>2283.891072803477</v>
+        <v>2464.550262800109</v>
       </c>
       <c r="U43" t="n">
-        <v>2035.753862906447</v>
+        <v>2396.440216545479</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.798354776877</v>
+        <v>2109.48470841591</v>
       </c>
       <c r="W43" t="n">
-        <v>1748.798354776877</v>
+        <v>1837.458304002201</v>
       </c>
       <c r="X43" t="n">
-        <v>1503.406600110289</v>
+        <v>1592.066549335614</v>
       </c>
       <c r="Y43" t="n">
-        <v>1275.986929424398</v>
+        <v>1364.646878649722</v>
       </c>
     </row>
     <row r="44">
@@ -7642,58 +7642,58 @@
         <v>383.3170432484974</v>
       </c>
       <c r="H44" t="n">
-        <v>94.18688869171368</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I44" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J44" t="n">
-        <v>93.77009931885368</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K44" t="n">
-        <v>93.77009931885368</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L44" t="n">
-        <v>93.77009931885368</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="M44" t="n">
-        <v>1038.631590390883</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="N44" t="n">
-        <v>2164.36257382733</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="O44" t="n">
-        <v>3144.542240397637</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P44" t="n">
-        <v>3972.852115231033</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q44" t="n">
-        <v>4519.350901189628</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R44" t="n">
-        <v>4688.504965942684</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S44" t="n">
-        <v>4604.853092126521</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T44" t="n">
-        <v>4384.78586499956</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U44" t="n">
-        <v>4384.78586499956</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V44" t="n">
-        <v>4022.168914933386</v>
+        <v>3762.946612250401</v>
       </c>
       <c r="W44" t="n">
-        <v>3617.31346034442</v>
+        <v>3358.091157661434</v>
       </c>
       <c r="X44" t="n">
-        <v>3198.17099692373</v>
+        <v>2938.948694240745</v>
       </c>
       <c r="Y44" t="n">
-        <v>2789.884873223384</v>
+        <v>2530.662570540399</v>
       </c>
     </row>
     <row r="45">
@@ -7703,10 +7703,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>599.9418443101465</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C45" t="n">
-        <v>493.4853831467888</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D45" t="n">
         <v>398.395094293342</v>
@@ -7721,46 +7721,46 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I45" t="n">
-        <v>93.77009931885368</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J45" t="n">
-        <v>418.328424285066</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K45" t="n">
-        <v>596.6048817268485</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L45" t="n">
-        <v>596.6048817268485</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M45" t="n">
-        <v>596.6048817268485</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N45" t="n">
-        <v>1757.009860797663</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O45" t="n">
-        <v>1757.009860797663</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P45" t="n">
-        <v>1757.009860797663</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q45" t="n">
-        <v>1757.009860797663</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>1757.009860797663</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S45" t="n">
-        <v>1693.554423246046</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T45" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>1387.039232576616</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V45" t="n">
         <v>1187.921714638615</v>
@@ -7769,10 +7769,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>847.7315246106889</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y45" t="n">
-        <v>721.2457453899096</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>944.266136395785</v>
+        <v>781.8461154418378</v>
       </c>
       <c r="C46" t="n">
-        <v>771.7044248790099</v>
+        <v>609.2844039250627</v>
       </c>
       <c r="D46" t="n">
-        <v>605.8264320805326</v>
+        <v>443.4064111265855</v>
       </c>
       <c r="E46" t="n">
-        <v>436.0684283312698</v>
+        <v>273.6484073773227</v>
       </c>
       <c r="F46" t="n">
-        <v>259.361374293026</v>
+        <v>96.94135333907892</v>
       </c>
       <c r="G46" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="H46" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I46" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J46" t="n">
         <v>180.3497844835435</v>
@@ -7839,19 +7839,19 @@
         <v>2283.891072803477</v>
       </c>
       <c r="U46" t="n">
-        <v>2167.878093010529</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V46" t="n">
-        <v>1880.92258488096</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W46" t="n">
-        <v>1608.896180467251</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X46" t="n">
-        <v>1363.504425800664</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y46" t="n">
-        <v>1136.084755114772</v>
+        <v>973.664734160825</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>640.5448952297621</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O2" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,10 +8054,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8066,22 +8066,22 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>345.0097498941942</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -8218,19 +8218,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -8300,7 +8300,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>145.5272350047205</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8467,16 +8467,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
-        <v>20.13097499434639</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8695,13 +8695,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>979.9409695458944</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>809.0782778761422</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8713,7 +8713,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8926,19 +8926,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458944</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>162.8103194923631</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8950,7 +8950,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>46.07100690393327</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -9172,22 +9172,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,34 +9239,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,16 +9400,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>459.5978749662608</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -9424,7 +9424,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9488,22 +9488,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>442.8800547735873</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
@@ -9646,22 +9646,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>274.84172772886</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9725,22 +9725,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9962,22 +9962,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
-        <v>231.4545770548052</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10193,22 +10193,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10351,28 +10351,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>583.0591140826364</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10436,22 +10436,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166684</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,16 +10588,16 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10609,7 +10609,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10822,16 +10822,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L38" t="n">
-        <v>92.22506899525797</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -10840,13 +10840,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,22 +10904,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11059,22 +11059,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>79.99429024216988</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831379</v>
+        <v>884.102282997861</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11083,7 +11083,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11147,22 +11147,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1172.126241485671</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>481.5869790379163</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>979.9409695458944</v>
       </c>
       <c r="M44" t="n">
-        <v>954.4055465374038</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11320,7 +11320,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>180.0772297391742</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11387,19 +11387,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1172.126241485671</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23311,10 +23311,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>111.2039336442346</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>329.0704884999246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>69.71657238081383</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>14.08936903582639</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,10 +23548,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>155.2557639217745</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,16 +23661,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>122.9308428424049</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>12.03288520609854</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>161.926849064972</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>102.9863699957321</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>120.4463752142721</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24414,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24612,10 +24612,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.8531101735159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25086,13 +25086,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>135.3636110865054</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>117.7661826744372</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.94985625021928</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>143.6516710866794</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25636,19 +25636,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>328.6578670207936</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>42.83163548871096</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>29.99283294136552</v>
+        <v>208.2197249473428</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>155.2557639217728</v>
+        <v>411.8858435779281</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25921,7 +25921,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>519025.8358417386</v>
+        <v>519025.8358417384</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>553467.8969204962</v>
+        <v>553467.8969204961</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>553467.896920496</v>
+        <v>553467.8969204961</v>
       </c>
     </row>
     <row r="10">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>519025.8358417384</v>
+        <v>519025.8358417383</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>519025.8358417386</v>
+        <v>519025.8358417383</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>388706.8069205461</v>
+        <v>388706.8069205462</v>
       </c>
       <c r="C2" t="n">
-        <v>388706.806920546</v>
+        <v>388706.8069205462</v>
       </c>
       <c r="D2" t="n">
-        <v>388706.806920546</v>
+        <v>388706.8069205462</v>
       </c>
       <c r="E2" t="n">
-        <v>358201.8164666983</v>
+        <v>358201.8164666981</v>
       </c>
       <c r="F2" t="n">
-        <v>358201.8164666983</v>
+        <v>358201.8164666981</v>
       </c>
       <c r="G2" t="n">
         <v>381971.7484995804</v>
@@ -26337,25 +26337,25 @@
         <v>381971.7484995804</v>
       </c>
       <c r="J2" t="n">
-        <v>381971.7484995804</v>
+        <v>381971.7484995803</v>
       </c>
       <c r="K2" t="n">
-        <v>381971.7484995804</v>
+        <v>381971.7484995803</v>
       </c>
       <c r="L2" t="n">
         <v>381971.7484995804</v>
       </c>
       <c r="M2" t="n">
-        <v>381971.7484995804</v>
+        <v>381971.7484995805</v>
       </c>
       <c r="N2" t="n">
         <v>381971.7484995804</v>
       </c>
       <c r="O2" t="n">
-        <v>358201.8164666984</v>
+        <v>358201.8164666982</v>
       </c>
       <c r="P2" t="n">
-        <v>358201.8164666984</v>
+        <v>358201.8164666982</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>150665.753571748</v>
+        <v>150665.7535717479</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29089.80917260779</v>
+        <v>29089.80917260791</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>125751.0883356908</v>
+        <v>125751.0883356907</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,16 +26420,16 @@
         <v>122130.8532251353</v>
       </c>
       <c r="C4" t="n">
-        <v>122130.8532251352</v>
+        <v>122130.8532251353</v>
       </c>
       <c r="D4" t="n">
-        <v>122130.8532251352</v>
+        <v>122130.8532251353</v>
       </c>
       <c r="E4" t="n">
-        <v>13358.73276318392</v>
+        <v>13358.73276318391</v>
       </c>
       <c r="F4" t="n">
-        <v>13358.73276318392</v>
+        <v>13358.73276318391</v>
       </c>
       <c r="G4" t="n">
         <v>14245.20557049264</v>
@@ -26456,10 +26456,10 @@
         <v>14245.20557049264</v>
       </c>
       <c r="O4" t="n">
-        <v>13358.73276318392</v>
+        <v>13358.73276318391</v>
       </c>
       <c r="P4" t="n">
-        <v>13358.73276318392</v>
+        <v>13358.73276318391</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>71265.2754823288</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="F5" t="n">
-        <v>71265.2754823288</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26508,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>71265.2754823288</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="P5" t="n">
-        <v>71265.2754823288</v>
+        <v>71265.27548232877</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-31336.26945039172</v>
+        <v>-31336.26945039167</v>
       </c>
       <c r="C6" t="n">
-        <v>192363.4291336531</v>
+        <v>192363.4291336532</v>
       </c>
       <c r="D6" t="n">
-        <v>192363.4291336531</v>
+        <v>192363.4291336532</v>
       </c>
       <c r="E6" t="n">
-        <v>122912.0546494376</v>
+        <v>122806.8650271829</v>
       </c>
       <c r="F6" t="n">
-        <v>273577.8082211856</v>
+        <v>273472.6185989308</v>
       </c>
       <c r="G6" t="n">
-        <v>260918.4951506875</v>
+        <v>260895.2708113047</v>
       </c>
       <c r="H6" t="n">
-        <v>290008.3043232952</v>
+        <v>289985.0799839125</v>
       </c>
       <c r="I6" t="n">
-        <v>290008.3043232952</v>
+        <v>289985.0799839126</v>
       </c>
       <c r="J6" t="n">
-        <v>115356.9556055891</v>
+        <v>115333.7312662064</v>
       </c>
       <c r="K6" t="n">
-        <v>290008.3043232952</v>
+        <v>289985.0799839124</v>
       </c>
       <c r="L6" t="n">
-        <v>290008.3043232952</v>
+        <v>289985.0799839125</v>
       </c>
       <c r="M6" t="n">
-        <v>164257.2159876045</v>
+        <v>164233.991648222</v>
       </c>
       <c r="N6" t="n">
-        <v>290008.3043232952</v>
+        <v>289985.0799839125</v>
       </c>
       <c r="O6" t="n">
-        <v>273577.8082211856</v>
+        <v>273472.6185989309</v>
       </c>
       <c r="P6" t="n">
-        <v>273577.8082211856</v>
+        <v>273472.6185989309</v>
       </c>
     </row>
   </sheetData>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>504.611034877814</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>106.1342618990743</v>
+        <v>106.1342618990748</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.611034877814</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.611034877814</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>106.1342618990743</v>
+        <v>106.1342618990748</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>400</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>3.329665100430248</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>185.8757317238697</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>143.6516710866791</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>96.56253959275571</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.7135181633988736</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27669,22 +27669,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>253.4649560972575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,7 +27779,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>69.71657238081438</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>111.4236523045826</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>328.833030588585</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>71.7441324320807</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28013,13 +28013,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>54.79268646174569</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>69.71657238081409</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>640.5448952297621</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O2" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,10 +34774,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34786,22 +34786,22 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>345.0097498941942</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34865,7 +34865,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
@@ -34938,19 +34938,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -35020,7 +35020,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>145.5272350047205</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35187,16 +35187,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
-        <v>20.13097499434639</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35415,13 +35415,13 @@
         <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>979.9409695458944</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>809.0782778761422</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35433,7 +35433,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35506,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458944</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>162.8103194923631</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35670,7 +35670,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35743,10 +35743,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638365</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>46.07100690393327</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>459.5978749662608</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -36144,7 +36144,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36208,22 +36208,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>442.8800547735873</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>274.84172772886</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36682,22 +36682,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
-        <v>231.4545770548052</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -37071,28 +37071,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>583.0591140826364</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166684</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37241,13 +37241,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,16 +37308,16 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37329,7 +37329,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37402,7 +37402,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37542,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L38" t="n">
-        <v>92.22506899525797</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -37560,13 +37560,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37706,7 +37706,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080445</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37715,7 +37715,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37779,22 +37779,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081364</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>79.99429024216988</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831377</v>
+        <v>884.102282997861</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37803,7 +37803,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37867,22 +37867,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1172.126241485671</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>481.5869790379163</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>979.9409695458944</v>
       </c>
       <c r="M44" t="n">
-        <v>954.4055465374038</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38040,7 +38040,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>180.0772297391742</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38107,19 +38107,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1172.126241485671</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
